--- a/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
+++ b/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="89">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -178,6 +178,18 @@
     <t>Pt—Legeme; højde = ? m</t>
   </si>
   <si>
+    <t>NPU08676</t>
+  </si>
+  <si>
+    <t>Pt—Legeme; temp. = ? °C</t>
+  </si>
+  <si>
+    <t>NPU19748</t>
+  </si>
+  <si>
+    <t>C-reaktivt protein [CRP];P</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.208.184.100.8</t>
   </si>
   <si>
@@ -233,6 +245,24 @@
   </si>
   <si>
     <t>CAT score;Pt</t>
+  </si>
+  <si>
+    <t>MCS88192</t>
+  </si>
+  <si>
+    <t>Skridt per dag;Pt</t>
+  </si>
+  <si>
+    <t>MCS88193</t>
+  </si>
+  <si>
+    <t>Skridt per uge;Pt</t>
+  </si>
+  <si>
+    <t>MCS88194</t>
+  </si>
+  <si>
+    <t>Skridt;Pt</t>
   </si>
   <si>
     <t>urn:oid:1.2.208.176.2.4</t>
@@ -626,7 +656,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -751,6 +781,40 @@
         <v>44</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -758,7 +822,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -783,7 +847,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -800,10 +864,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
@@ -817,10 +881,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>
@@ -834,10 +898,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>35</v>
@@ -851,10 +915,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>35</v>
@@ -868,10 +932,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>35</v>
@@ -885,10 +949,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>35</v>
@@ -902,10 +966,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>35</v>
@@ -919,10 +983,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>35</v>
@@ -936,10 +1000,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>35</v>
@@ -948,6 +1012,57 @@
         <v>44</v>
       </c>
       <c r="E11" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>44</v>
       </c>
     </row>
@@ -983,7 +1098,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -1000,10 +1115,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
@@ -1047,7 +1162,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>21</v>
@@ -1064,10 +1179,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>35</v>
@@ -1084,7 +1199,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>35</v>

--- a/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
+++ b/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
     <sheet name="Mapping Table 3" r:id="rId7" sheetId="5"/>
     <sheet name="Mapping Table 4" r:id="rId8" sheetId="6"/>
+    <sheet name="Mapping Table 5" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -277,6 +278,15 @@
     <t>Hjemmeblodtryksmåling udført af patienten</t>
   </si>
   <si>
+    <t>ZZ7011</t>
+  </si>
+  <si>
+    <t>Klinisk foto</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
     <t>http://snomed.info/sct</t>
   </si>
   <si>
@@ -287,6 +297,54 @@
   </si>
   <si>
     <t>Master questionnaire</t>
+  </si>
+  <si>
+    <t>446080005</t>
+  </si>
+  <si>
+    <t>Photography of wound</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0532</t>
+  </si>
+  <si>
+    <t>72287-6</t>
+  </si>
+  <si>
+    <t>Wound size panel</t>
+  </si>
+  <si>
+    <t>39126-8</t>
+  </si>
+  <si>
+    <t>Length of Wound</t>
+  </si>
+  <si>
+    <t>39125-0</t>
+  </si>
+  <si>
+    <t>Width of Wound</t>
+  </si>
+  <si>
+    <t>39127-6</t>
+  </si>
+  <si>
+    <t>Depth of Wound</t>
+  </si>
+  <si>
+    <t>89260-4</t>
+  </si>
+  <si>
+    <t>Area of wound</t>
+  </si>
+  <si>
+    <t>94083-3</t>
+  </si>
+  <si>
+    <t>Wound volume</t>
   </si>
 </sst>
 </file>
@@ -1076,70 +1134,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1165,7 +1159,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1182,10 +1176,91 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>87</v>
       </c>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -1202,7 +1277,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -1212,6 +1287,172 @@
       </c>
       <c r="E4" t="s" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
+++ b/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
+++ b/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="113">
   <si>
     <t>Property</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -149,13 +149,25 @@
     <t>urn:oid:1.2.208.176.2.1</t>
   </si>
   <si>
+    <t>DNK05472</t>
+  </si>
+  <si>
+    <t>Blodtryk systolisk;Arm</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>DNK05473</t>
+  </si>
+  <si>
+    <t>Blodtryk diastolisk;Arm</t>
+  </si>
+  <si>
     <t>NPU03011</t>
   </si>
   <si>
     <t>O2 sat.;Hb(aB)</t>
-  </si>
-  <si>
-    <t>Observation</t>
   </si>
   <si>
     <t>NPU21692</t>
@@ -717,7 +729,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -873,6 +885,40 @@
         <v>45</v>
       </c>
       <c r="E9" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>45</v>
       </c>
     </row>
@@ -908,7 +954,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -925,10 +971,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -942,10 +988,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -959,10 +1005,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
@@ -976,10 +1022,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>36</v>
@@ -993,10 +1039,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>36</v>
@@ -1010,10 +1056,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>36</v>
@@ -1027,10 +1073,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>36</v>
@@ -1044,10 +1090,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>36</v>
@@ -1061,10 +1107,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>36</v>
@@ -1078,10 +1124,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>36</v>
@@ -1095,10 +1141,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>36</v>
@@ -1112,10 +1158,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>36</v>
@@ -1159,7 +1205,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1176,10 +1222,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -1193,19 +1239,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1286,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1257,10 +1303,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -1277,7 +1323,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -1291,19 +1337,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1384,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1347,7 +1393,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1355,10 +1401,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -1372,10 +1418,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -1389,10 +1435,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
@@ -1406,10 +1452,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>36</v>
@@ -1423,10 +1469,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>36</v>
@@ -1440,10 +1486,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>36</v>

--- a/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
+++ b/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
+++ b/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -167,19 +167,19 @@
     <t>NPU03011</t>
   </si>
   <si>
-    <t>O2 sat.;Hb(aB)</t>
+    <t>Hb(Fe; O2-bind.; aB)—Oxygen(O2); mætn. = ?</t>
   </si>
   <si>
     <t>NPU21692</t>
   </si>
   <si>
-    <t>Puls;Hjerte</t>
+    <t>Hjerte—Systole; frekv. = ? × 1/min</t>
   </si>
   <si>
     <t>NPU03804</t>
   </si>
   <si>
-    <t>Legeme vægt; Pt</t>
+    <t>Pt—Legeme; masse = ? kg</t>
   </si>
   <si>
     <t>NPU27281</t>
@@ -200,12 +200,6 @@
     <t>Pt—Legeme; temp. = ? °C</t>
   </si>
   <si>
-    <t>NPU19748</t>
-  </si>
-  <si>
-    <t>C-reaktivt protein [CRP];P</t>
-  </si>
-  <si>
     <t>urn:oid:1.2.208.184.100.8</t>
   </si>
   <si>
@@ -227,18 +221,6 @@
     <t>FEV1/FVC;Lunge</t>
   </si>
   <si>
-    <t>MCS88019</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme systolisk;Arm</t>
-  </si>
-  <si>
-    <t>MCS88020</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme diastolisk;Arm</t>
-  </si>
-  <si>
     <t>MCS88021</t>
   </si>
   <si>
@@ -318,9 +300,6 @@
   </si>
   <si>
     <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0532</t>
   </si>
   <si>
     <t>72287-6</t>
@@ -729,7 +708,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -905,23 +884,6 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -929,7 +891,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +916,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -971,10 +933,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -988,10 +950,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -1005,10 +967,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
@@ -1022,10 +984,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>36</v>
@@ -1039,10 +1001,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>36</v>
@@ -1056,10 +1018,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>36</v>
@@ -1073,10 +1035,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>36</v>
@@ -1090,10 +1052,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>36</v>
@@ -1107,10 +1069,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>36</v>
@@ -1124,10 +1086,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>36</v>
@@ -1136,40 +1098,6 @@
         <v>45</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s" s="2">
         <v>45</v>
       </c>
     </row>
@@ -1205,7 +1133,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1222,10 +1150,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -1239,19 +1167,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1286,7 +1214,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1303,10 +1231,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -1323,7 +1251,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -1337,19 +1265,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1312,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>33</v>
@@ -1393,7 +1321,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1401,10 +1329,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>36</v>
@@ -1418,10 +1346,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>36</v>
@@ -1435,10 +1363,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>36</v>
@@ -1452,10 +1380,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>36</v>
@@ -1469,10 +1397,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>36</v>
@@ -1486,10 +1414,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>36</v>

--- a/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
+++ b/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
+++ b/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
+++ b/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
+++ b/fhir/activitydefinition-code-to-measurement-resource-type.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
